--- a/CTRL.xlsx
+++ b/CTRL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zero\8bit-CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577FE4BA-D452-435E-B4A8-7FD02B5084FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8FB9E4-B09F-4DE6-9939-4ABC015C13BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="169">
   <si>
     <t>NOP - 80</t>
   </si>
@@ -529,6 +529,9 @@
   </si>
   <si>
     <t>JN</t>
+  </si>
+  <si>
+    <t>PD-LD</t>
   </si>
 </sst>
 </file>
@@ -550,7 +553,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,6 +563,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,12 +585,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -862,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X248"/>
+  <dimension ref="A1:X266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="J173" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O242" sqref="O242:O266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,6 +912,7 @@
       <c r="M1" t="s">
         <v>69</v>
       </c>
+      <c r="O1" s="5"/>
       <c r="P1" t="s">
         <v>61</v>
       </c>
@@ -937,7 +948,7 @@
       <c r="D2" t="s">
         <v>140</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="5" t="s">
         <v>129</v>
       </c>
       <c r="P2" t="s">
@@ -954,6 +965,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="O3" s="5"/>
       <c r="P3" t="s">
         <v>84</v>
       </c>
@@ -968,6 +980,7 @@
       <c r="E4" t="s">
         <v>141</v>
       </c>
+      <c r="O4" s="5"/>
       <c r="P4" t="s">
         <v>85</v>
       </c>
@@ -979,12 +992,13 @@
       <c r="E5" t="s">
         <v>129</v>
       </c>
+      <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="5" t="s">
         <v>130</v>
       </c>
       <c r="P6" t="s">
@@ -1007,6 +1021,7 @@
       <c r="E7" t="s">
         <v>141</v>
       </c>
+      <c r="O7" s="5"/>
       <c r="P7" t="s">
         <v>86</v>
       </c>
@@ -1018,6 +1033,7 @@
       <c r="E8" t="s">
         <v>130</v>
       </c>
+      <c r="O8" s="5"/>
       <c r="P8" t="s">
         <v>87</v>
       </c>
@@ -1026,6 +1042,8 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1037,7 +1055,7 @@
       <c r="E10" t="s">
         <v>141</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="5" t="s">
         <v>132</v>
       </c>
       <c r="P10" t="s">
@@ -1054,6 +1072,7 @@
       <c r="E11" t="s">
         <v>131</v>
       </c>
+      <c r="O11" s="5"/>
       <c r="P11" t="s">
         <v>74</v>
       </c>
@@ -1062,6 +1081,7 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O12" s="5"/>
       <c r="P12" t="s">
         <v>78</v>
       </c>
@@ -1077,6 +1097,7 @@
         <v>132</v>
       </c>
       <c r="F13" s="2"/>
+      <c r="O13" s="5"/>
       <c r="P13" t="s">
         <v>79</v>
       </c>
@@ -1089,6 +1110,7 @@
         <v>142</v>
       </c>
       <c r="F14" s="2"/>
+      <c r="O14" s="5"/>
       <c r="P14" t="s">
         <v>86</v>
       </c>
@@ -1098,8 +1120,9 @@
         <v>13</v>
       </c>
       <c r="F15" s="2"/>
+      <c r="O15" s="5"/>
       <c r="P15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -1113,11 +1136,12 @@
         <v>133</v>
       </c>
       <c r="F16" s="2"/>
+      <c r="O16" s="5"/>
       <c r="P16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1125,20 +1149,22 @@
         <v>142</v>
       </c>
       <c r="F17" s="2"/>
+      <c r="O17" s="5"/>
       <c r="P17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="2"/>
+      <c r="O18" s="5"/>
       <c r="P18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1149,11 +1175,12 @@
         <v>139</v>
       </c>
       <c r="F19" s="2"/>
+      <c r="O19" s="5"/>
       <c r="P19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1161,13 +1188,14 @@
         <v>142</v>
       </c>
       <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="O21" s="1" t="s">
+      <c r="O21" s="5" t="s">
         <v>133</v>
       </c>
       <c r="P21" t="s">
@@ -1177,7 +1205,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1188,11 +1216,12 @@
         <v>132</v>
       </c>
       <c r="F22" s="2"/>
+      <c r="O22" s="5"/>
       <c r="P22" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1200,20 +1229,22 @@
         <v>144</v>
       </c>
       <c r="F23" s="2"/>
+      <c r="O23" s="5"/>
       <c r="P23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="2"/>
+      <c r="O24" s="5"/>
       <c r="P24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1224,11 +1255,12 @@
         <v>133</v>
       </c>
       <c r="F25" s="2"/>
+      <c r="O25" s="5"/>
       <c r="P25" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1236,20 +1268,22 @@
         <v>144</v>
       </c>
       <c r="F26" s="2"/>
+      <c r="O26" s="5"/>
       <c r="P26" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F27" s="2"/>
+      <c r="O27" s="5"/>
       <c r="P27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1260,11 +1294,12 @@
         <v>139</v>
       </c>
       <c r="F28" s="2"/>
+      <c r="O28" s="5"/>
       <c r="P28" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1272,20 +1307,22 @@
         <v>144</v>
       </c>
       <c r="F29" s="2"/>
+      <c r="O29" s="5"/>
       <c r="P29" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F30" s="2"/>
+      <c r="O30" s="5"/>
       <c r="P30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1298,152 +1335,167 @@
       <c r="F31" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="O32" s="5" t="s">
         <v>134</v>
       </c>
       <c r="P32" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Q32" t="s">
         <v>76</v>
       </c>
       <c r="R32" t="s">
+        <v>103</v>
+      </c>
+      <c r="T32" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="2"/>
-      <c r="P33" t="s">
-        <v>98</v>
-      </c>
+      <c r="O33" s="5"/>
       <c r="Q33" t="s">
         <v>77</v>
       </c>
-      <c r="R33" t="s">
+      <c r="T33" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D34" t="s">
         <v>97</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I34" t="s">
         <v>143</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="P34" t="s">
-        <v>99</v>
-      </c>
+      <c r="O34" s="5"/>
       <c r="Q34" t="s">
         <v>96</v>
       </c>
-      <c r="R34" t="s">
+      <c r="T34" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
+        <v>145</v>
+      </c>
+      <c r="H35" t="s">
+        <v>145</v>
+      </c>
+      <c r="I35" t="s">
         <v>135</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G35" t="s">
+      <c r="K35" t="s">
         <v>134</v>
       </c>
-      <c r="H35" t="s">
+      <c r="L35" t="s">
         <v>136</v>
       </c>
-      <c r="J35" t="s">
-        <v>145</v>
-      </c>
-      <c r="L35" t="s">
-        <v>145</v>
-      </c>
-      <c r="P35" t="s">
-        <v>167</v>
-      </c>
+      <c r="O35" s="5"/>
       <c r="Q35" t="s">
         <v>104</v>
       </c>
-      <c r="R35" t="s">
+      <c r="T35" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E36" t="s">
+      <c r="I36" t="s">
         <v>134</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="P36" t="s">
-        <v>102</v>
-      </c>
+      <c r="J36" s="2"/>
+      <c r="O36" s="5"/>
       <c r="Q36" t="s">
         <v>105</v>
       </c>
-      <c r="R36" t="s">
+      <c r="T36" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="P37" t="s">
-        <v>100</v>
-      </c>
+      <c r="I37" t="s">
+        <v>138</v>
+      </c>
+      <c r="O37" s="5"/>
       <c r="Q37" t="s">
         <v>106</v>
       </c>
-      <c r="R37" t="s">
+      <c r="T37" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -1465,41 +1517,43 @@
       <c r="I38" t="s">
         <v>132</v>
       </c>
-      <c r="P38" t="s">
-        <v>101</v>
-      </c>
+      <c r="O38" s="5"/>
       <c r="Q38" t="s">
         <v>107</v>
       </c>
-      <c r="R38" t="s">
+      <c r="T38" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" t="s">
+        <v>145</v>
+      </c>
       <c r="I39" t="s">
         <v>136</v>
       </c>
-      <c r="P39" t="s">
-        <v>103</v>
-      </c>
+      <c r="O39" s="5"/>
       <c r="Q39" t="s">
         <v>108</v>
       </c>
-      <c r="R39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O40" s="5"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -1521,43 +1575,53 @@
       <c r="I41" t="s">
         <v>133</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="O41" s="5" t="s">
         <v>135</v>
       </c>
       <c r="P41" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="S41" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="2"/>
+      <c r="F42" t="s">
+        <v>145</v>
+      </c>
+      <c r="H42" t="s">
+        <v>145</v>
+      </c>
       <c r="I42" t="s">
         <v>136</v>
       </c>
-      <c r="P42" t="s">
-        <v>98</v>
-      </c>
+      <c r="O42" s="5"/>
       <c r="S42" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P43" t="s">
-        <v>99</v>
-      </c>
+      <c r="O43" s="5"/>
       <c r="S43" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -1579,483 +1643,536 @@
       <c r="I44" t="s">
         <v>139</v>
       </c>
-      <c r="P44" t="s">
-        <v>167</v>
-      </c>
+      <c r="O44" s="5"/>
       <c r="S44" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="2"/>
+      <c r="F45" t="s">
+        <v>145</v>
+      </c>
+      <c r="H45" t="s">
+        <v>145</v>
+      </c>
       <c r="I45" t="s">
         <v>136</v>
       </c>
-      <c r="P45" t="s">
-        <v>102</v>
-      </c>
+      <c r="O45" s="5"/>
       <c r="S45" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F46" s="2"/>
-      <c r="P46" t="s">
-        <v>100</v>
-      </c>
+      <c r="O46" s="5"/>
       <c r="S46" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D47" t="s">
         <v>98</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I47" t="s">
         <v>143</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="L47" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="P47" t="s">
-        <v>101</v>
-      </c>
+      <c r="O47" s="5"/>
       <c r="S47" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D48" t="s">
         <v>152</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
+        <v>145</v>
+      </c>
+      <c r="H48" t="s">
+        <v>145</v>
+      </c>
+      <c r="I48" t="s">
         <v>135</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G48" t="s">
+      <c r="K48" t="s">
         <v>134</v>
       </c>
-      <c r="H48" t="s">
+      <c r="L48" t="s">
         <v>136</v>
       </c>
-      <c r="J48" t="s">
-        <v>145</v>
-      </c>
-      <c r="L48" t="s">
-        <v>145</v>
-      </c>
-      <c r="P48" t="s">
-        <v>103</v>
-      </c>
+      <c r="O48" s="5"/>
       <c r="S48" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E49" t="s">
+      <c r="I49" t="s">
         <v>134</v>
       </c>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J49" s="2"/>
+      <c r="O49" s="5"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F50" s="2"/>
-      <c r="O50" s="1" t="s">
+      <c r="O50" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>97</v>
-      </c>
-      <c r="S50" t="s">
-        <v>97</v>
       </c>
       <c r="T50" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U50" t="s">
+        <v>97</v>
+      </c>
+      <c r="W50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I51" t="s">
         <v>143</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="L51" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="Q51" t="s">
-        <v>98</v>
-      </c>
-      <c r="S51" t="s">
-        <v>98</v>
-      </c>
+      <c r="O51" s="5"/>
       <c r="T51" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U51" t="s">
+        <v>98</v>
+      </c>
+      <c r="W51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
+        <v>145</v>
+      </c>
+      <c r="H52" t="s">
+        <v>145</v>
+      </c>
+      <c r="I52" t="s">
         <v>135</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G52" t="s">
+      <c r="K52" t="s">
         <v>134</v>
       </c>
-      <c r="H52" t="s">
+      <c r="L52" t="s">
         <v>136</v>
       </c>
-      <c r="J52" t="s">
-        <v>145</v>
-      </c>
-      <c r="L52" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>99</v>
-      </c>
-      <c r="S52" t="s">
-        <v>99</v>
-      </c>
+      <c r="O52" s="5"/>
       <c r="T52" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U52" t="s">
+        <v>99</v>
+      </c>
+      <c r="W52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E53" t="s">
+      <c r="I53" t="s">
         <v>134</v>
       </c>
-      <c r="F53" s="2"/>
-      <c r="Q53" t="s">
+      <c r="J53" s="2"/>
+      <c r="O53" s="5"/>
+      <c r="U53" t="s">
         <v>167</v>
       </c>
-      <c r="S53" t="s">
+      <c r="W53" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F54" s="2"/>
-      <c r="Q54" t="s">
+      <c r="O54" s="5"/>
+      <c r="U54" t="s">
         <v>102</v>
       </c>
-      <c r="S54" t="s">
+      <c r="W54" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I55" t="s">
         <v>143</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="L55" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="O55" s="5"/>
+      <c r="U55" t="s">
         <v>100</v>
       </c>
-      <c r="S55" t="s">
+      <c r="W55" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
+        <v>145</v>
+      </c>
+      <c r="H56" t="s">
+        <v>145</v>
+      </c>
+      <c r="I56" t="s">
         <v>135</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="J56" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G56" t="s">
+      <c r="K56" t="s">
         <v>134</v>
       </c>
-      <c r="H56" t="s">
+      <c r="L56" t="s">
         <v>136</v>
       </c>
-      <c r="J56" t="s">
-        <v>145</v>
-      </c>
-      <c r="L56" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q56" t="s">
+      <c r="O56" s="5"/>
+      <c r="U56" t="s">
         <v>101</v>
       </c>
-      <c r="S56" t="s">
+      <c r="W56" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E57" t="s">
+      <c r="I57" t="s">
         <v>134</v>
       </c>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J57" s="2"/>
+      <c r="O57" s="5"/>
+      <c r="P57" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R57" t="s">
+        <v>63</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T57" t="s">
+        <v>65</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V57" t="s">
+        <v>67</v>
+      </c>
+      <c r="W57" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F58" s="2"/>
-      <c r="O58" s="1" t="s">
+      <c r="O58" s="5" t="s">
         <v>137</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>103</v>
+      </c>
+      <c r="S58" t="s">
+        <v>103</v>
       </c>
       <c r="T58" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I59" t="s">
         <v>143</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="J59" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="K59" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="L59" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>151</v>
       </c>
+      <c r="O59" s="5"/>
       <c r="T59" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
+        <v>145</v>
+      </c>
+      <c r="H60" t="s">
+        <v>145</v>
+      </c>
+      <c r="I60" t="s">
         <v>135</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="J60" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G60" t="s">
+      <c r="K60" t="s">
         <v>134</v>
       </c>
-      <c r="H60" t="s">
+      <c r="L60" t="s">
         <v>136</v>
       </c>
-      <c r="J60" t="s">
-        <v>145</v>
-      </c>
-      <c r="L60" t="s">
-        <v>145</v>
-      </c>
+      <c r="O60" s="5"/>
       <c r="T60" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E61" t="s">
+      <c r="I61" t="s">
         <v>134</v>
       </c>
-      <c r="F61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="O61" s="5"/>
       <c r="T61" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F62" s="2"/>
+      <c r="O62" s="5"/>
       <c r="T62" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D63" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I63" t="s">
         <v>143</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="J63" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="K63" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="L63" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O63" s="5"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D64" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
+        <v>145</v>
+      </c>
+      <c r="H64" t="s">
+        <v>145</v>
+      </c>
+      <c r="I64" t="s">
         <v>135</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="J64" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G64" t="s">
+      <c r="K64" t="s">
         <v>134</v>
       </c>
-      <c r="H64" t="s">
+      <c r="L64" t="s">
         <v>136</v>
       </c>
-      <c r="J64" t="s">
-        <v>145</v>
-      </c>
-      <c r="L64" t="s">
-        <v>145</v>
-      </c>
-      <c r="O64" s="1" t="s">
+      <c r="O64" s="5" t="s">
         <v>138</v>
       </c>
       <c r="P64" t="s">
@@ -2067,15 +2184,13 @@
       <c r="T64" t="s">
         <v>97</v>
       </c>
-      <c r="V64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="E65" t="s">
+    </row>
+    <row r="65" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
         <v>134</v>
       </c>
-      <c r="F65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="O65" s="5"/>
       <c r="P65" t="s">
         <v>76</v>
       </c>
@@ -2085,11 +2200,9 @@
       <c r="T65" t="s">
         <v>98</v>
       </c>
-      <c r="V65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="4:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="O66" s="5"/>
       <c r="P66" t="s">
         <v>77</v>
       </c>
@@ -2099,41 +2212,39 @@
       <c r="T66" t="s">
         <v>99</v>
       </c>
-      <c r="V66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="4:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D67" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I67" t="s">
         <v>143</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="J67" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="K67" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="L67" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>151</v>
       </c>
+      <c r="O67" s="5"/>
       <c r="P67" t="s">
         <v>96</v>
       </c>
@@ -2143,32 +2254,30 @@
       <c r="T67" t="s">
         <v>167</v>
       </c>
-      <c r="V67" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="68" spans="4:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D68" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
+        <v>145</v>
+      </c>
+      <c r="H68" t="s">
+        <v>145</v>
+      </c>
+      <c r="I68" t="s">
         <v>135</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G68" t="s">
+      <c r="K68" t="s">
         <v>134</v>
       </c>
-      <c r="H68" t="s">
+      <c r="L68" t="s">
         <v>136</v>
       </c>
-      <c r="J68" t="s">
-        <v>145</v>
-      </c>
-      <c r="L68" t="s">
-        <v>145</v>
-      </c>
+      <c r="O68" s="5"/>
       <c r="P68" t="s">
         <v>104</v>
       </c>
@@ -2178,15 +2287,13 @@
       <c r="T68" t="s">
         <v>102</v>
       </c>
-      <c r="V68" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="E69" t="s">
+    </row>
+    <row r="69" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
         <v>134</v>
       </c>
-      <c r="F69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="O69" s="5"/>
       <c r="P69" t="s">
         <v>109</v>
       </c>
@@ -2196,11 +2303,9 @@
       <c r="T69" t="s">
         <v>100</v>
       </c>
-      <c r="V69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="4:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="O70" s="5"/>
       <c r="P70" t="s">
         <v>105</v>
       </c>
@@ -2210,11 +2315,8 @@
       <c r="T70" t="s">
         <v>101</v>
       </c>
-      <c r="V70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="4:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>103</v>
       </c>
@@ -2230,6 +2332,10 @@
       <c r="H71" t="s">
         <v>137</v>
       </c>
+      <c r="I71" t="s">
+        <v>168</v>
+      </c>
+      <c r="O71" s="5"/>
       <c r="P71" t="s">
         <v>110</v>
       </c>
@@ -2237,7 +2343,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>135</v>
       </c>
@@ -2250,37 +2356,57 @@
       <c r="H72" t="s">
         <v>150</v>
       </c>
+      <c r="O72" s="5"/>
       <c r="P72" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="73" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="R72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>134</v>
       </c>
+      <c r="O73" s="5"/>
       <c r="P73" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="74" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="R73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="O74" s="5"/>
       <c r="P74" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="75" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="R74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>128</v>
       </c>
+      <c r="O75" s="5"/>
       <c r="P75" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="76" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="R75" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="O76" s="5"/>
       <c r="P76" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="77" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="R76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>78</v>
       </c>
@@ -2290,35 +2416,45 @@
       <c r="F77" t="s">
         <v>161</v>
       </c>
+      <c r="O77" s="5"/>
       <c r="P77" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="78" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="R77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>159</v>
       </c>
       <c r="F78" t="s">
         <v>131</v>
       </c>
+      <c r="O78" s="5"/>
       <c r="P78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="4:22" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="R78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
         <v>160</v>
       </c>
+      <c r="O79" s="5"/>
       <c r="P79" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="O80" s="5"/>
       <c r="P80" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>80</v>
       </c>
@@ -2328,47 +2464,45 @@
       <c r="F81" t="s">
         <v>161</v>
       </c>
+      <c r="O81" s="5"/>
       <c r="P81" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
         <v>159</v>
       </c>
       <c r="F82" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="83" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="O82" s="5"/>
+      <c r="P82" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
         <v>160</v>
       </c>
-      <c r="O83" s="1" t="s">
-        <v>145</v>
+      <c r="O83" s="5"/>
+      <c r="P83" t="s">
+        <v>98</v>
       </c>
       <c r="Q83" t="s">
-        <v>75</v>
-      </c>
-      <c r="S83" t="s">
-        <v>104</v>
-      </c>
-      <c r="U83" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="O84" s="5"/>
+      <c r="P84" t="s">
+        <v>99</v>
+      </c>
       <c r="Q84" t="s">
-        <v>109</v>
-      </c>
-      <c r="S84" t="s">
-        <v>105</v>
-      </c>
-      <c r="U84" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
         <v>120</v>
       </c>
@@ -2378,56 +2512,51 @@
       <c r="F85" t="s">
         <v>161</v>
       </c>
+      <c r="O85" s="5"/>
+      <c r="P85" t="s">
+        <v>167</v>
+      </c>
       <c r="Q85" t="s">
-        <v>104</v>
-      </c>
-      <c r="S85" t="s">
-        <v>106</v>
-      </c>
-      <c r="U85" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
         <v>159</v>
       </c>
       <c r="F86" t="s">
         <v>131</v>
       </c>
+      <c r="O86" s="5"/>
+      <c r="P86" t="s">
+        <v>102</v>
+      </c>
       <c r="Q86" t="s">
-        <v>110</v>
-      </c>
-      <c r="S86" t="s">
-        <v>107</v>
-      </c>
-      <c r="U86" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
         <v>160</v>
       </c>
+      <c r="O87" s="5"/>
+      <c r="P87" t="s">
+        <v>100</v>
+      </c>
       <c r="Q87" t="s">
-        <v>105</v>
-      </c>
-      <c r="S87" t="s">
-        <v>108</v>
-      </c>
-      <c r="U87" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="O88" s="5"/>
+      <c r="P88" t="s">
+        <v>101</v>
+      </c>
       <c r="Q88" t="s">
-        <v>106</v>
-      </c>
-      <c r="U88" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>104</v>
       </c>
@@ -2449,14 +2578,12 @@
       <c r="J89" t="s">
         <v>161</v>
       </c>
+      <c r="O89" s="5"/>
       <c r="Q89" t="s">
-        <v>107</v>
-      </c>
-      <c r="U89" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:19" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
         <v>134</v>
       </c>
@@ -2469,24 +2596,38 @@
       <c r="J90" t="s">
         <v>131</v>
       </c>
+      <c r="O90" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="Q90" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="4:21" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="S90" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="4:19" x14ac:dyDescent="0.25">
       <c r="I91" t="s">
         <v>160</v>
       </c>
+      <c r="O91" s="5"/>
       <c r="Q91" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="92" spans="4:21" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="S91" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="O92" s="5"/>
       <c r="Q92" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="93" spans="4:21" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="S92" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>109</v>
       </c>
@@ -2499,43 +2640,60 @@
       <c r="G93" t="s">
         <v>160</v>
       </c>
+      <c r="O93" s="5"/>
       <c r="Q93" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="94" spans="4:21" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="S93" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="4:19" x14ac:dyDescent="0.25">
       <c r="F94" t="s">
         <v>159</v>
       </c>
       <c r="G94" t="s">
         <v>131</v>
       </c>
+      <c r="O94" s="5"/>
       <c r="Q94" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="95" spans="4:21" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="S94" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="4:19" x14ac:dyDescent="0.25">
       <c r="F95" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="96" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="O96" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="O95" s="5"/>
+      <c r="Q95" t="s">
+        <v>96</v>
+      </c>
+      <c r="S95" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="O96" s="5"/>
       <c r="Q96" t="s">
-        <v>103</v>
-      </c>
-      <c r="U96" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="97" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="U97" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="98" spans="4:23" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="S96" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="O97" s="5"/>
+      <c r="Q97" t="s">
+        <v>109</v>
+      </c>
+      <c r="S97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>79</v>
       </c>
@@ -2545,35 +2703,51 @@
       <c r="F98" t="s">
         <v>161</v>
       </c>
-      <c r="U98" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="99" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="O98" s="5"/>
+      <c r="Q98" t="s">
+        <v>104</v>
+      </c>
+      <c r="S98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
         <v>162</v>
       </c>
       <c r="F99" t="s">
         <v>131</v>
       </c>
-      <c r="U99" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="100" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="O99" s="5"/>
+      <c r="Q99" t="s">
+        <v>110</v>
+      </c>
+      <c r="S99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
         <v>160</v>
       </c>
-      <c r="U100" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="101" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="U101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="O100" s="5"/>
+      <c r="Q100" t="s">
+        <v>105</v>
+      </c>
+      <c r="S100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="O101" s="5"/>
+      <c r="Q101" t="s">
+        <v>106</v>
+      </c>
+      <c r="S101" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>81</v>
       </c>
@@ -2583,38 +2757,48 @@
       <c r="F102" t="s">
         <v>161</v>
       </c>
-      <c r="U102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="O102" s="5"/>
+      <c r="Q102" t="s">
+        <v>107</v>
+      </c>
+      <c r="S102" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
         <v>162</v>
       </c>
       <c r="F103" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="104" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="O103" s="5"/>
+      <c r="Q103" t="s">
+        <v>108</v>
+      </c>
+      <c r="S103" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
         <v>160</v>
       </c>
-      <c r="O104" s="1" t="s">
-        <v>150</v>
+      <c r="O104" s="5"/>
+      <c r="Q104" t="s">
+        <v>112</v>
       </c>
       <c r="S104" t="s">
-        <v>103</v>
-      </c>
-      <c r="W104" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="105" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="W105" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="106" spans="4:23" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="O105" s="5"/>
+      <c r="Q105" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
         <v>121</v>
       </c>
@@ -2624,35 +2808,60 @@
       <c r="F106" t="s">
         <v>161</v>
       </c>
-      <c r="W106" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="107" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="O106" s="5"/>
+      <c r="Q106" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
         <v>162</v>
       </c>
       <c r="F107" t="s">
         <v>131</v>
       </c>
-      <c r="W107" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="108" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="O107" s="5"/>
+      <c r="Q107" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
         <v>160</v>
       </c>
-      <c r="W108" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="109" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="W109" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="O108" s="5"/>
+    </row>
+    <row r="109" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="O109" s="5"/>
+      <c r="P109" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q109" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R109" t="s">
+        <v>63</v>
+      </c>
+      <c r="S109" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T109" t="s">
+        <v>65</v>
+      </c>
+      <c r="U109" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V109" t="s">
+        <v>67</v>
+      </c>
+      <c r="W109" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X109" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
         <v>105</v>
       </c>
@@ -2674,11 +2883,14 @@
       <c r="J110" t="s">
         <v>161</v>
       </c>
-      <c r="W110" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="111" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="O110" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" spans="4:24" x14ac:dyDescent="0.25">
       <c r="F111" t="s">
         <v>134</v>
       </c>
@@ -2691,24 +2903,27 @@
       <c r="J111" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="112" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="O111" s="5"/>
+      <c r="Q111" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="112" spans="4:24" x14ac:dyDescent="0.25">
       <c r="I112" t="s">
         <v>160</v>
       </c>
-      <c r="O112" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="O112" s="5"/>
       <c r="Q112" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="113" spans="4:24" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="O113" s="5"/>
       <c r="Q113" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="114" spans="4:24" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
         <v>110</v>
       </c>
@@ -2721,35 +2936,39 @@
       <c r="G114" t="s">
         <v>160</v>
       </c>
+      <c r="O114" s="5"/>
       <c r="Q114" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="115" spans="4:24" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F115" t="s">
         <v>162</v>
       </c>
       <c r="G115" t="s">
         <v>131</v>
       </c>
+      <c r="O115" s="5"/>
       <c r="Q115" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="116" spans="4:24" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F116" t="s">
         <v>160</v>
       </c>
+      <c r="O116" s="5"/>
       <c r="Q116" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="117" spans="4:24" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="O117" s="5"/>
       <c r="Q117" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="4:24" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="118" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
         <v>82</v>
       </c>
@@ -2759,24 +2978,29 @@
       <c r="F118" t="s">
         <v>145</v>
       </c>
-      <c r="Q118" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="119" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="O118" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="S118" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="119" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F119" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="120" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="O120" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="O119" s="5"/>
+      <c r="S119" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="120" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="O120" s="5"/>
       <c r="S120" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="121" spans="4:24" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="121" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
         <v>83</v>
       </c>
@@ -2786,24 +3010,27 @@
       <c r="F121" t="s">
         <v>145</v>
       </c>
+      <c r="O121" s="5"/>
       <c r="S121" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="122" spans="4:24" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="122" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F122" t="s">
         <v>130</v>
       </c>
+      <c r="O122" s="5"/>
       <c r="S122" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="123" spans="4:24" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="123" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="O123" s="5"/>
       <c r="S123" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="124" spans="4:24" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="124" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
         <v>111</v>
       </c>
@@ -2813,24 +3040,29 @@
       <c r="F124" t="s">
         <v>145</v>
       </c>
+      <c r="O124" s="5"/>
       <c r="S124" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="125" spans="4:24" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F125" t="s">
         <v>131</v>
       </c>
+      <c r="O125" s="5"/>
       <c r="S125" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="126" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="S126" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="127" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="O126" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="U126" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="127" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
         <v>106</v>
       </c>
@@ -2849,8 +3081,12 @@
       <c r="I127" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="128" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="O127" s="5"/>
+      <c r="U127" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="128" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F128" t="s">
         <v>134</v>
       </c>
@@ -2860,16 +3096,15 @@
       <c r="I128" t="s">
         <v>129</v>
       </c>
-      <c r="O128" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="X128" t="s">
-        <v>97</v>
+      <c r="O128" s="5"/>
+      <c r="U128" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="129" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="X129" t="s">
-        <v>98</v>
+      <c r="O129" s="5"/>
+      <c r="U129" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="130" spans="4:24" x14ac:dyDescent="0.25">
@@ -2891,8 +3126,9 @@
       <c r="I130" t="s">
         <v>137</v>
       </c>
-      <c r="X130" t="s">
-        <v>99</v>
+      <c r="O130" s="5"/>
+      <c r="U130" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="131" spans="4:24" x14ac:dyDescent="0.25">
@@ -2905,13 +3141,15 @@
       <c r="I131" t="s">
         <v>130</v>
       </c>
-      <c r="X131" t="s">
-        <v>167</v>
+      <c r="O131" s="5"/>
+      <c r="U131" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="132" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="X132" t="s">
-        <v>102</v>
+      <c r="O132" s="5"/>
+      <c r="U132" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="133" spans="4:24" x14ac:dyDescent="0.25">
@@ -2933,9 +3171,7 @@
       <c r="I133" t="s">
         <v>137</v>
       </c>
-      <c r="X133" t="s">
-        <v>100</v>
-      </c>
+      <c r="O133" s="5"/>
     </row>
     <row r="134" spans="4:24" x14ac:dyDescent="0.25">
       <c r="F134" t="s">
@@ -2947,8 +3183,17 @@
       <c r="I134" t="s">
         <v>131</v>
       </c>
-      <c r="X134" t="s">
-        <v>101</v>
+      <c r="O134" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W134" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="135" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="O135" s="5"/>
+      <c r="W135" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="136" spans="4:24" x14ac:dyDescent="0.25">
@@ -2958,45 +3203,24 @@
       <c r="E136" t="s">
         <v>133</v>
       </c>
-      <c r="O136" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="P136" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q136" t="s">
-        <v>78</v>
-      </c>
-      <c r="R136" t="s">
-        <v>109</v>
-      </c>
-      <c r="T136" t="s">
-        <v>108</v>
+      <c r="O136" s="5"/>
+      <c r="W136" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="137" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E137" t="s">
         <v>129</v>
       </c>
-      <c r="P137" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q137" t="s">
-        <v>80</v>
-      </c>
-      <c r="R137" t="s">
-        <v>110</v>
+      <c r="O137" s="5"/>
+      <c r="W137" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="138" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="P138" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q138" t="s">
-        <v>120</v>
-      </c>
-      <c r="R138" t="s">
-        <v>112</v>
+      <c r="O138" s="5"/>
+      <c r="W138" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="139" spans="4:24" x14ac:dyDescent="0.25">
@@ -3006,31 +3230,22 @@
       <c r="E139" t="s">
         <v>139</v>
       </c>
-      <c r="Q139" t="s">
-        <v>79</v>
-      </c>
-      <c r="R139" t="s">
-        <v>113</v>
+      <c r="O139" s="5"/>
+      <c r="W139" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E140" t="s">
         <v>129</v>
       </c>
-      <c r="Q140" t="s">
-        <v>81</v>
-      </c>
-      <c r="R140" t="s">
-        <v>114</v>
+      <c r="O140" s="5"/>
+      <c r="W140" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="141" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="Q141" t="s">
-        <v>121</v>
-      </c>
-      <c r="R141" t="s">
-        <v>115</v>
-      </c>
+      <c r="O141" s="5"/>
     </row>
     <row r="142" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
@@ -3039,96 +3254,169 @@
       <c r="E142" t="s">
         <v>132</v>
       </c>
-      <c r="Q142" t="s">
-        <v>88</v>
+      <c r="O142" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="T142" t="s">
+        <v>103</v>
+      </c>
+      <c r="X142" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="143" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E143" t="s">
         <v>130</v>
       </c>
-      <c r="Q143" t="s">
-        <v>89</v>
+      <c r="O143" s="5"/>
+      <c r="X143" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="144" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="Q144" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="145" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="O144" s="5"/>
+      <c r="X144" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="145" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
         <v>87</v>
       </c>
       <c r="E145" t="s">
         <v>139</v>
       </c>
-      <c r="Q145" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="146" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="O145" s="5"/>
+      <c r="X145" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="146" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E146" t="s">
         <v>130</v>
       </c>
-      <c r="Q146" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="147" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="Q147" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="148" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="O146" s="5"/>
+      <c r="X146" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="147" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="O147" s="5"/>
+      <c r="X147" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
         <v>122</v>
       </c>
       <c r="E148" t="s">
         <v>132</v>
       </c>
-      <c r="Q148" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="149" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="O148" s="5"/>
+      <c r="X148" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="149" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E149" t="s">
         <v>131</v>
       </c>
-      <c r="Q149" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="150" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="O149" s="5"/>
+      <c r="P149" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q149" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R149" t="s">
+        <v>63</v>
+      </c>
+      <c r="S149" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T149" t="s">
+        <v>65</v>
+      </c>
+      <c r="U149" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V149" t="s">
+        <v>67</v>
+      </c>
+      <c r="W149" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X149" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="150" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="O150" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="P150" t="s">
+        <v>116</v>
+      </c>
       <c r="Q150" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="151" spans="4:20" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="R150" t="s">
+        <v>109</v>
+      </c>
+      <c r="T150" t="s">
+        <v>108</v>
+      </c>
+      <c r="U150" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="151" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
         <v>123</v>
       </c>
       <c r="E151" t="s">
         <v>133</v>
       </c>
+      <c r="O151" s="5"/>
+      <c r="P151" t="s">
+        <v>122</v>
+      </c>
       <c r="Q151" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="152" spans="4:20" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="R151" t="s">
+        <v>110</v>
+      </c>
+      <c r="U151" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="152" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E152" t="s">
         <v>131</v>
       </c>
+      <c r="O152" s="5"/>
+      <c r="P152" t="s">
+        <v>123</v>
+      </c>
       <c r="Q152" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="153" spans="4:20" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="R152" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="153" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="O153" s="5"/>
       <c r="Q153" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="154" spans="4:20" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="R153" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="154" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D154" t="s">
         <v>88</v>
       </c>
@@ -3138,21 +3426,45 @@
       <c r="F154" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="155" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="O154" s="5"/>
+      <c r="Q154" t="s">
+        <v>79</v>
+      </c>
+      <c r="R154" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="155" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E155" t="s">
         <v>163</v>
       </c>
       <c r="F155" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="156" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="O155" s="5"/>
+      <c r="Q155" t="s">
+        <v>81</v>
+      </c>
+      <c r="R155" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="156" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E156" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="158" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="O156" s="5"/>
+      <c r="Q156" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="157" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="O157" s="5"/>
+      <c r="Q157" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="158" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
         <v>89</v>
       </c>
@@ -3162,35 +3474,36 @@
       <c r="F158" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="159" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="O158" s="5"/>
+      <c r="Q158" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="159" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E159" t="s">
         <v>163</v>
       </c>
       <c r="F159" t="s">
         <v>131</v>
       </c>
-      <c r="O159" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P159" t="s">
-        <v>117</v>
-      </c>
-      <c r="T159" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="160" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="O159" s="5"/>
+      <c r="Q159" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="160" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E160" t="s">
         <v>160</v>
       </c>
-      <c r="P160" t="s">
-        <v>119</v>
+      <c r="O160" s="5"/>
+      <c r="Q160" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="161" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="P161" t="s">
-        <v>120</v>
+      <c r="O161" s="5"/>
+      <c r="Q161" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="162" spans="2:20" x14ac:dyDescent="0.25">
@@ -3203,8 +3516,9 @@
       <c r="F162" t="s">
         <v>161</v>
       </c>
-      <c r="P162" t="s">
-        <v>121</v>
+      <c r="O162" s="5"/>
+      <c r="Q162" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="163" spans="2:20" x14ac:dyDescent="0.25">
@@ -3214,21 +3528,24 @@
       <c r="F163" t="s">
         <v>131</v>
       </c>
-      <c r="P163" t="s">
-        <v>85</v>
+      <c r="O163" s="5"/>
+      <c r="Q163" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="164" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E164" t="s">
         <v>160</v>
       </c>
-      <c r="P164" t="s">
-        <v>87</v>
+      <c r="O164" s="5"/>
+      <c r="Q164" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="165" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="P165" t="s">
-        <v>124</v>
+      <c r="O165" s="5"/>
+      <c r="Q165" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="166" spans="2:20" x14ac:dyDescent="0.25">
@@ -3244,8 +3561,9 @@
       <c r="G166" t="s">
         <v>161</v>
       </c>
-      <c r="P166" t="s">
-        <v>125</v>
+      <c r="O166" s="5"/>
+      <c r="Q166" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="167" spans="2:20" x14ac:dyDescent="0.25">
@@ -3255,20 +3573,23 @@
       <c r="G167" t="s">
         <v>131</v>
       </c>
-      <c r="P167" t="s">
-        <v>127</v>
+      <c r="O167" s="5"/>
+      <c r="Q167" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="168" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F168" t="s">
         <v>160</v>
       </c>
-      <c r="P168" t="s">
-        <v>126</v>
+      <c r="O168" s="5"/>
+      <c r="Q168" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="169" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B169" s="4"/>
+      <c r="O169" s="5"/>
     </row>
     <row r="170" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D170" t="s">
@@ -3280,18 +3601,7 @@
       <c r="F170" t="s">
         <v>161</v>
       </c>
-      <c r="O170" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="P170" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q170" t="s">
-        <v>109</v>
-      </c>
-      <c r="T170" t="s">
-        <v>104</v>
-      </c>
+      <c r="O170" s="5"/>
     </row>
     <row r="171" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E171" t="s">
@@ -3300,16 +3610,23 @@
       <c r="F171" t="s">
         <v>131</v>
       </c>
-      <c r="P171" t="s">
-        <v>80</v>
-      </c>
+      <c r="O171" s="5"/>
     </row>
     <row r="172" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E172" t="s">
         <v>160</v>
       </c>
-      <c r="P172" t="s">
-        <v>120</v>
+      <c r="O172" s="5"/>
+    </row>
+    <row r="173" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O173" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P173" t="s">
+        <v>117</v>
+      </c>
+      <c r="T173" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="174" spans="2:20" x14ac:dyDescent="0.25">
@@ -3322,17 +3639,9 @@
       <c r="F174" t="s">
         <v>161</v>
       </c>
-      <c r="O174" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="O174" s="5"/>
       <c r="P174" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q174" t="s">
-        <v>110</v>
-      </c>
-      <c r="T174" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="175" spans="2:20" x14ac:dyDescent="0.25">
@@ -3342,19 +3651,27 @@
       <c r="F175" t="s">
         <v>131</v>
       </c>
+      <c r="O175" s="5"/>
       <c r="P175" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
     </row>
     <row r="176" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E176" t="s">
         <v>160</v>
       </c>
+      <c r="O176" s="5"/>
       <c r="P176" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="178" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="O177" s="5"/>
+      <c r="P177" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="178" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D178" t="s">
         <v>125</v>
       </c>
@@ -3364,36 +3681,39 @@
       <c r="F178" t="s">
         <v>161</v>
       </c>
-      <c r="O178" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="O178" s="5"/>
       <c r="P178" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q178" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="179" spans="4:17" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="179" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E179" t="s">
         <v>164</v>
       </c>
       <c r="F179" t="s">
         <v>131</v>
       </c>
+      <c r="O179" s="5"/>
       <c r="P179" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="180" spans="4:17" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="180" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E180" t="s">
         <v>160</v>
       </c>
+      <c r="O180" s="5"/>
       <c r="P180" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="182" spans="4:17" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="181" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="O181" s="5"/>
+      <c r="P181" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="182" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D182" t="s">
         <v>113</v>
       </c>
@@ -3406,36 +3726,44 @@
       <c r="G182" t="s">
         <v>161</v>
       </c>
-      <c r="O182" s="1" t="s">
-        <v>164</v>
-      </c>
+      <c r="O182" s="5"/>
       <c r="P182" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q182" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="183" spans="4:17" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="183" spans="4:24" x14ac:dyDescent="0.25">
       <c r="F183" t="s">
         <v>164</v>
       </c>
       <c r="G183" t="s">
         <v>131</v>
       </c>
-      <c r="P183" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="184" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="O183" s="5"/>
+    </row>
+    <row r="184" spans="4:24" x14ac:dyDescent="0.25">
       <c r="F184" t="s">
         <v>160</v>
       </c>
+      <c r="O184" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="P184" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="186" spans="4:17" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>109</v>
+      </c>
+      <c r="T184" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="185" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="O185" s="5"/>
+      <c r="P185" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="186" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D186" t="s">
         <v>94</v>
       </c>
@@ -3445,36 +3773,71 @@
       <c r="F186" t="s">
         <v>161</v>
       </c>
-      <c r="O186" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="O186" s="5"/>
       <c r="P186" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q186" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="187" spans="4:17" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="187" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E187" t="s">
         <v>165</v>
       </c>
       <c r="F187" t="s">
         <v>131</v>
       </c>
+      <c r="O187" s="5"/>
       <c r="P187" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="188" spans="4:17" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="Q187" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R187" t="s">
+        <v>63</v>
+      </c>
+      <c r="S187" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T187" t="s">
+        <v>65</v>
+      </c>
+      <c r="U187" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V187" t="s">
+        <v>67</v>
+      </c>
+      <c r="W187" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X187" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="188" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E188" t="s">
         <v>160</v>
       </c>
+      <c r="O188" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="P188" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="190" spans="4:17" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>110</v>
+      </c>
+      <c r="T188" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="189" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="O189" s="5"/>
+      <c r="P189" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="190" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D190" t="s">
         <v>95</v>
       </c>
@@ -3484,36 +3847,41 @@
       <c r="F190" t="s">
         <v>161</v>
       </c>
-      <c r="O190" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="O190" s="5"/>
       <c r="P190" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q190" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="191" spans="4:17" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="191" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E191" t="s">
         <v>165</v>
       </c>
       <c r="F191" t="s">
         <v>131</v>
       </c>
-      <c r="P191" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="192" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="O191" s="5"/>
+    </row>
+    <row r="192" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E192" t="s">
         <v>160</v>
       </c>
+      <c r="O192" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="P192" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="194" spans="4:20" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="193" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="O193" s="5"/>
+      <c r="P193" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="194" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D194" t="s">
         <v>127</v>
       </c>
@@ -3523,56 +3891,41 @@
       <c r="F194" t="s">
         <v>161</v>
       </c>
-      <c r="O194" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="O194" s="5"/>
       <c r="P194" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q194" t="s">
-        <v>109</v>
-      </c>
-      <c r="T194" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="195" spans="4:20" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="195" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E195" t="s">
         <v>165</v>
       </c>
       <c r="F195" t="s">
         <v>131</v>
       </c>
-      <c r="P195" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q195" t="s">
-        <v>110</v>
-      </c>
-      <c r="T195" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="196" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="O195" s="5"/>
+    </row>
+    <row r="196" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E196" t="s">
         <v>160</v>
       </c>
+      <c r="O196" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="P196" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="Q196" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="197" spans="4:20" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="197" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="O197" s="5"/>
       <c r="P197" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q197" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="198" spans="4:20" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="198" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D198" t="s">
         <v>115</v>
       </c>
@@ -3585,41 +3938,41 @@
       <c r="G198" t="s">
         <v>161</v>
       </c>
+      <c r="O198" s="5"/>
       <c r="P198" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q198" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="199" spans="4:20" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="199" spans="4:24" x14ac:dyDescent="0.25">
       <c r="F199" t="s">
         <v>165</v>
       </c>
       <c r="G199" t="s">
         <v>131</v>
       </c>
-      <c r="P199" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q199" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="200" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="O199" s="5"/>
+    </row>
+    <row r="200" spans="4:24" x14ac:dyDescent="0.25">
       <c r="F200" t="s">
         <v>160</v>
       </c>
+      <c r="O200" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="P200" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="201" spans="4:20" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="201" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="O201" s="5"/>
       <c r="P201" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="202" spans="4:20" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="202" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D202" t="s">
         <v>92</v>
       </c>
@@ -3629,35 +3982,41 @@
       <c r="F202" t="s">
         <v>161</v>
       </c>
+      <c r="O202" s="5"/>
       <c r="P202" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="203" spans="4:20" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="203" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E203" t="s">
         <v>166</v>
       </c>
       <c r="F203" t="s">
         <v>131</v>
       </c>
-      <c r="P203" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="204" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="O203" s="5"/>
+    </row>
+    <row r="204" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E204" t="s">
         <v>160</v>
       </c>
+      <c r="O204" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="P204" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="205" spans="4:20" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="205" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="O205" s="5"/>
       <c r="P205" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="206" spans="4:20" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="206" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D206" t="s">
         <v>93</v>
       </c>
@@ -3667,38 +4026,77 @@
       <c r="F206" t="s">
         <v>161</v>
       </c>
+      <c r="O206" s="5"/>
       <c r="P206" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="207" spans="4:20" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="207" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E207" t="s">
         <v>166</v>
       </c>
       <c r="F207" t="s">
         <v>131</v>
       </c>
+      <c r="O207" s="5"/>
       <c r="P207" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="208" spans="4:20" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="Q207" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R207" t="s">
+        <v>63</v>
+      </c>
+      <c r="S207" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T207" t="s">
+        <v>65</v>
+      </c>
+      <c r="U207" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V207" t="s">
+        <v>67</v>
+      </c>
+      <c r="W207" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X207" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="208" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E208" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="209" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="O209" s="1" t="s">
-        <v>161</v>
+      <c r="O208" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="P208" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>109</v>
+      </c>
+      <c r="T208" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="209" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="O209" s="5"/>
+      <c r="P209" t="s">
+        <v>80</v>
       </c>
       <c r="Q209" t="s">
-        <v>78</v>
-      </c>
-      <c r="R209" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="210" spans="4:18" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="T209" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="210" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D210" t="s">
         <v>126</v>
       </c>
@@ -3708,47 +4106,51 @@
       <c r="F210" t="s">
         <v>161</v>
       </c>
+      <c r="O210" s="5"/>
+      <c r="P210" t="s">
+        <v>120</v>
+      </c>
       <c r="Q210" t="s">
-        <v>80</v>
-      </c>
-      <c r="R210" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="211" spans="4:18" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="211" spans="4:21" x14ac:dyDescent="0.25">
       <c r="E211" t="s">
         <v>166</v>
       </c>
       <c r="F211" t="s">
         <v>131</v>
       </c>
+      <c r="O211" s="5"/>
+      <c r="P211" t="s">
+        <v>79</v>
+      </c>
       <c r="Q211" t="s">
-        <v>120</v>
-      </c>
-      <c r="R211" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="212" spans="4:18" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="212" spans="4:21" x14ac:dyDescent="0.25">
       <c r="E212" t="s">
         <v>160</v>
       </c>
+      <c r="O212" s="5"/>
+      <c r="P212" t="s">
+        <v>81</v>
+      </c>
       <c r="Q212" t="s">
-        <v>79</v>
-      </c>
-      <c r="R212" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="213" spans="4:18" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="213" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="O213" s="5"/>
+      <c r="P213" t="s">
+        <v>121</v>
+      </c>
       <c r="Q213" t="s">
-        <v>81</v>
-      </c>
-      <c r="R213" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="214" spans="4:18" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="214" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D214" t="s">
         <v>114</v>
       </c>
@@ -3761,186 +4163,392 @@
       <c r="G214" t="s">
         <v>161</v>
       </c>
-      <c r="Q214" t="s">
-        <v>121</v>
-      </c>
-      <c r="R214" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="215" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="O214" s="5"/>
+      <c r="P214" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="215" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F215" t="s">
         <v>166</v>
       </c>
       <c r="G215" t="s">
         <v>131</v>
       </c>
-      <c r="Q215" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="216" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="O215" s="5"/>
+      <c r="P215" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="216" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F216" t="s">
         <v>160</v>
       </c>
-      <c r="Q216" t="s">
+      <c r="O216" s="5"/>
+      <c r="P216" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="217" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="O217" s="5"/>
+      <c r="P217" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="218" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="O218" s="5"/>
+      <c r="P218" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="219" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="N219" t="s">
+        <v>126</v>
+      </c>
+      <c r="O219" s="5"/>
+      <c r="P219" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="220" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="N220" t="s">
+        <v>94</v>
+      </c>
+      <c r="O220" s="5"/>
+      <c r="P220" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="221" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="N221" t="s">
+        <v>95</v>
+      </c>
+      <c r="O221" s="5"/>
+      <c r="P221" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="222" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="N222" t="s">
+        <v>127</v>
+      </c>
+      <c r="O222" s="5"/>
+      <c r="Q222" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="223" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="O223" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>78</v>
+      </c>
+      <c r="R223" t="s">
+        <v>109</v>
+      </c>
+      <c r="U223" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="224" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="O224" s="5"/>
+      <c r="Q224" t="s">
+        <v>80</v>
+      </c>
+      <c r="R224" t="s">
+        <v>110</v>
+      </c>
+      <c r="U224" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="225" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O225" s="5"/>
+      <c r="Q225" t="s">
+        <v>120</v>
+      </c>
+      <c r="R225" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="226" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O226" s="5"/>
+      <c r="Q226" t="s">
+        <v>79</v>
+      </c>
+      <c r="R226" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="227" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O227" s="5"/>
+      <c r="Q227" t="s">
+        <v>81</v>
+      </c>
+      <c r="R227" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="228" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O228" s="5"/>
+      <c r="Q228" t="s">
+        <v>121</v>
+      </c>
+      <c r="R228" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="229" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O229" s="5"/>
+      <c r="Q229" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="230" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O230" s="5"/>
+      <c r="Q230" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="217" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="Q217" t="s">
+    <row r="231" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O231" s="5"/>
+      <c r="Q231" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="218" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="Q218" t="s">
+    <row r="232" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O232" s="5"/>
+      <c r="Q232" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="219" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="Q219" t="s">
+    <row r="233" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O233" s="5"/>
+      <c r="Q233" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="220" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="Q220" t="s">
+    <row r="234" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O234" s="5"/>
+      <c r="Q234" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="221" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="Q221" t="s">
+    <row r="235" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O235" s="5"/>
+      <c r="Q235" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="222" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="Q222" t="s">
+    <row r="236" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O236" s="5"/>
+      <c r="Q236" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="224" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="O224" s="1" t="s">
+    <row r="237" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O237" s="5"/>
+    </row>
+    <row r="238" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O238" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="P224" t="s">
+      <c r="P238" t="s">
         <v>74</v>
       </c>
-      <c r="Q224" t="s">
+      <c r="Q238" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="225" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="P225" t="s">
+    <row r="239" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O239" s="5"/>
+      <c r="P239" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="226" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="P226" t="s">
+    <row r="240" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O240" s="5"/>
+      <c r="P240" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="228" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O228" s="1" t="s">
+    <row r="241" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="O241" s="5"/>
+    </row>
+    <row r="242" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="O242" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="P228" t="s">
+      <c r="P242" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="229" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="P229" t="s">
+    <row r="243" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="O243" s="5"/>
+      <c r="P243" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="230" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="P230" t="s">
+    <row r="244" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="O244" s="5"/>
+      <c r="P244" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="232" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O232" s="1" t="s">
+    <row r="245" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="O245" s="5"/>
+      <c r="P245" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q245" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R245" t="s">
+        <v>63</v>
+      </c>
+      <c r="S245" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T245" t="s">
+        <v>65</v>
+      </c>
+      <c r="U245" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V245" t="s">
+        <v>67</v>
+      </c>
+      <c r="W245" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X245" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="246" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="O246" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="P232" t="s">
+      <c r="P246" t="s">
+        <v>103</v>
+      </c>
+      <c r="T246" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="233" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="P233" t="s">
+    <row r="247" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="O247" s="5"/>
+      <c r="T247" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="234" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="P234" t="s">
+    <row r="248" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="O248" s="5"/>
+      <c r="T248" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="235" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="P235" t="s">
+    <row r="249" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="O249" s="5"/>
+      <c r="T249" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="236" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="P236" t="s">
+    <row r="250" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="O250" s="5"/>
+      <c r="T250" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="237" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="P237" t="s">
+    <row r="251" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="O251" s="5"/>
+      <c r="T251" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="238" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="P238" t="s">
+    <row r="252" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="O252" s="5"/>
+      <c r="T252" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="239" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="P239" t="s">
+    <row r="253" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="O253" s="5"/>
+    </row>
+    <row r="254" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="O254" s="5"/>
+    </row>
+    <row r="255" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="O255" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="R255" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="241" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O241" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R241" t="s">
+      <c r="V255" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="242" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="R242" t="s">
+    <row r="256" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="O256" s="5"/>
+      <c r="V256" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="243" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="R243" t="s">
+    <row r="257" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O257" s="5"/>
+      <c r="V257" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="244" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="R244" t="s">
+    <row r="258" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O258" s="5"/>
+      <c r="V258" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="245" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="R245" t="s">
+    <row r="259" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O259" s="5"/>
+      <c r="V259" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="246" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="R246" t="s">
+    <row r="260" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O260" s="5"/>
+      <c r="V260" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="247" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="R247" t="s">
+    <row r="261" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O261" s="5"/>
+      <c r="V261" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="248" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="R248" t="s">
-        <v>103</v>
-      </c>
+    <row r="262" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O262" s="5"/>
+    </row>
+    <row r="263" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O263" s="5"/>
+    </row>
+    <row r="264" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O264" s="5"/>
+    </row>
+    <row r="265" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O265" s="5"/>
+    </row>
+    <row r="266" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O266" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
